--- a/PCB/0.1/BOM/Orthonite87_PCB_2.xlsx
+++ b/PCB/0.1/BOM/Orthonite87_PCB_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattr\Documents\GitHub\Orthonite87\PCB\0.1\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{202C37A3-5DF4-4F77-B114-3CD055CE149D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5352059B-AD86-4A9F-AF2A-13BA7D67BE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33060" windowHeight="12170"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthonite87_PCB" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="128">
   <si>
     <t xml:space="preserve"> Quantity</t>
   </si>
@@ -88,12 +88,6 @@
     <t>C2286</t>
   </si>
   <si>
-    <t>KT-0603R</t>
-  </si>
-  <si>
-    <t>Hubei KENTO Elec</t>
-  </si>
-  <si>
     <t>C114586</t>
   </si>
   <si>
@@ -145,12 +139,6 @@
     <t>C82045</t>
   </si>
   <si>
-    <t>BSS138LT1G</t>
-  </si>
-  <si>
-    <t>ON Semicon</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q2 </t>
   </si>
   <si>
@@ -208,18 +196,12 @@
     <t>C51118</t>
   </si>
   <si>
-    <t>AP2112K-3.3TRG1</t>
-  </si>
-  <si>
     <t>Diodes Incorporated</t>
   </si>
   <si>
     <t xml:space="preserve">U2 </t>
   </si>
   <si>
-    <t>USBLC6-2SC6</t>
-  </si>
-  <si>
     <t>C7519</t>
   </si>
   <si>
@@ -274,9 +256,6 @@
     <t>CAP CER 1UF 50V X5R 0603</t>
   </si>
   <si>
-    <t>Red 615~630nm 1.9~2.2V 0603 Light Emitting Diodes (LED) RoHS</t>
-  </si>
-  <si>
     <t>RGB 620~630nm Red, 515~530nm Green, 465~475nm Blue SMD,5x5mm Light Emitting Diodes (LED) ROHS</t>
   </si>
   <si>
@@ -313,9 +292,6 @@
     <t>Unidirectional 5A 17V 6V 5.25V SOT-23-6 ESD Protection Devices ROHS</t>
   </si>
   <si>
-    <t>STM32F303RCT6</t>
-  </si>
-  <si>
     <t>2V ~ 3.6V 32-Bit ARM® Cortex®-M4 72MHz FLASH LQFP-64_10x10x05P ST Microelectronics ROHS</t>
   </si>
   <si>
@@ -389,12 +365,51 @@
   </si>
   <si>
     <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>C84263</t>
+  </si>
+  <si>
+    <t>NCD0603R1</t>
+  </si>
+  <si>
+    <t>Foshan NationStar Optoelectronics</t>
+  </si>
+  <si>
+    <t>Red 615~630nm 0603 Light Emitting Diodes (LED) ROHS</t>
+  </si>
+  <si>
+    <t>C130453</t>
+  </si>
+  <si>
+    <t>STM32F303RBT6</t>
+  </si>
+  <si>
+    <t>C111212</t>
+  </si>
+  <si>
+    <t>USBLC6-4SC6</t>
+  </si>
+  <si>
+    <t>C150742</t>
+  </si>
+  <si>
+    <t>AP7365-33WG-7</t>
+  </si>
+  <si>
+    <t>C130894</t>
+  </si>
+  <si>
+    <t>Shikues</t>
+  </si>
+  <si>
+    <t>2SK2158</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -539,7 +554,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,6 +737,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,7 +914,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -895,6 +922,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1250,11 +1280,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1273,34 +1303,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1311,9 +1341,9 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
@@ -1326,13 +1356,13 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -1340,12 +1370,12 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
@@ -1358,10 +1388,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -1372,12 +1402,12 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
@@ -1390,10 +1420,10 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
@@ -1404,12 +1434,12 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
@@ -1422,10 +1452,10 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -1436,12 +1466,12 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
@@ -1454,10 +1484,10 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -1468,12 +1498,12 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
@@ -1486,10 +1516,10 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -1500,12 +1530,12 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
@@ -1526,25 +1556,25 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
+        <v>110</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
+        <v>117</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -1555,31 +1585,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10">
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1587,31 +1617,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
       </c>
       <c r="G11">
         <v>101</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1619,31 +1649,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1651,31 +1681,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1683,31 +1713,31 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1715,31 +1745,31 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
+        <v>110</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1747,31 +1777,31 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
+        <v>110</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1779,31 +1809,31 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
+        <v>110</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1811,31 +1841,31 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" t="s">
-        <v>102</v>
+        <v>110</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1843,31 +1873,31 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
+        <v>110</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1875,28 +1905,28 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
+        <v>110</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -1904,31 +1934,31 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
+        <v>110</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -1936,31 +1966,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
+        <v>110</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I22" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -1968,31 +1998,31 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
+        <v>110</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I23" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -2000,38 +2030,40 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" t="s">
-        <v>72</v>
+        <v>110</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I24" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D9" r:id="rId2" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Foshan-NationStar-Optoelectronics-NCD0603R1_C84263.html" xr:uid="{69ACE3AE-F9CE-4DE7-98C6-1B4B5305E573}"/>
+    <hyperlink ref="F9" r:id="rId3" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Foshan-NationStar-Optoelectronics-NCD0603R1_C84263.html" xr:uid="{AE6AEBDC-8352-46E2-90FE-0239A6C1D7B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/PCB/0.1/BOM/Orthonite87_PCB_2.xlsx
+++ b/PCB/0.1/BOM/Orthonite87_PCB_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattr\Documents\GitHub\Orthonite87\PCB\0.1\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5352059B-AD86-4A9F-AF2A-13BA7D67BE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A705224-0D28-41BB-872C-892FE6DE56F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="10620" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthonite87_PCB" sheetId="1" r:id="rId1"/>
@@ -145,12 +145,6 @@
     <t>C111724</t>
   </si>
   <si>
-    <t>DTC123JKAT146</t>
-  </si>
-  <si>
-    <t>ROHM Semicon</t>
-  </si>
-  <si>
     <t>C25804</t>
   </si>
   <si>
@@ -404,6 +398,12 @@
   </si>
   <si>
     <t>2SK2158</t>
+  </si>
+  <si>
+    <t>C151437</t>
+  </si>
+  <si>
+    <t>DDTC113ZCA-7-F</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1303,34 +1303,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>2</v>
@@ -1356,13 +1356,13 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -1370,10 +1370,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>
@@ -1388,10 +1388,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -1402,10 +1402,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
@@ -1420,10 +1420,10 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
@@ -1434,10 +1434,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>10</v>
@@ -1452,10 +1452,10 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -1466,10 +1466,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>13</v>
@@ -1484,10 +1484,10 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -1498,10 +1498,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>15</v>
@@ -1516,10 +1516,10 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -1530,10 +1530,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>19</v>
@@ -1556,25 +1556,25 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" t="s">
         <v>115</v>
       </c>
-      <c r="E9" t="s">
-        <v>117</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -1585,10 +1585,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>22</v>
@@ -1603,10 +1603,10 @@
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
         <v>22</v>
@@ -1620,7 +1620,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>26</v>
@@ -1635,10 +1635,10 @@
         <v>101</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
         <v>26</v>
@@ -1652,7 +1652,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>30</v>
@@ -1667,10 +1667,10 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J12" t="s">
         <v>30</v>
@@ -1684,7 +1684,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>34</v>
@@ -1699,13 +1699,13 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1716,25 +1716,25 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" t="s">
         <v>125</v>
-      </c>
-      <c r="E14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" t="s">
-        <v>127</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J14" t="s">
         <v>38</v>
@@ -1748,25 +1748,25 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>40</v>
+        <v>108</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J15" t="s">
         <v>40</v>
@@ -1777,31 +1777,31 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
         <v>43</v>
       </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1809,31 +1809,31 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
         <v>45</v>
-      </c>
-      <c r="F17" t="s">
-        <v>47</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1841,31 +1841,31 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" t="s">
         <v>92</v>
-      </c>
-      <c r="I18" t="s">
-        <v>105</v>
-      </c>
-      <c r="J18" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1873,31 +1873,31 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" t="s">
-        <v>51</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1905,28 +1905,28 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -1934,31 +1934,31 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" t="s">
         <v>56</v>
       </c>
-      <c r="C21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" t="s">
-        <v>58</v>
-      </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -1966,31 +1966,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
         <v>59</v>
       </c>
-      <c r="C22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" t="s">
-        <v>61</v>
-      </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -1998,31 +1998,31 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -2030,31 +2030,31 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s">
         <v>65</v>
-      </c>
-      <c r="C24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
